--- a/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.69583551437381</v>
+        <v>92.68528940627428</v>
       </c>
       <c r="D2" t="n">
-        <v>9.327111015214534</v>
+        <v>10.0221195844931</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.61336097788241</v>
+        <v>92.9852972595704</v>
       </c>
       <c r="D3" t="n">
-        <v>9.570528184514053</v>
+        <v>9.107744689574668</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.89831142104686</v>
+        <v>90.15255781442954</v>
       </c>
       <c r="D4" t="n">
-        <v>10.52645719172837</v>
+        <v>9.974045070049199</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.3176989221875</v>
+        <v>89.1543423492443</v>
       </c>
       <c r="D5" t="n">
-        <v>8.251107253359717</v>
+        <v>9.816642692566937</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.51808813918791</v>
+        <v>89.25734945680701</v>
       </c>
       <c r="D6" t="n">
-        <v>9.889143227094621</v>
+        <v>8.479407981687968</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.96440561384907</v>
+        <v>85.60012515809323</v>
       </c>
       <c r="D7" t="n">
-        <v>10.16654635474198</v>
+        <v>8.84881633724555</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.55033059495943</v>
+        <v>86.3509852751158</v>
       </c>
       <c r="D8" t="n">
-        <v>8.971909276876159</v>
+        <v>9.894581583784927</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.00700311378678</v>
+        <v>85.91876369506724</v>
       </c>
       <c r="D9" t="n">
-        <v>9.445746860275198</v>
+        <v>8.406538943118322</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.61123264989841</v>
+        <v>84.02019587116632</v>
       </c>
       <c r="D10" t="n">
-        <v>9.693745256645574</v>
+        <v>9.527136437151544</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.50663638097993</v>
+        <v>83.02841649039812</v>
       </c>
       <c r="D11" t="n">
-        <v>9.533987327252605</v>
+        <v>9.325350811895044</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.11572485338058</v>
+        <v>82.97952730564845</v>
       </c>
       <c r="D12" t="n">
-        <v>10.28285087953486</v>
+        <v>8.648093359310309</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.52434126171022</v>
+        <v>80.40165276631734</v>
       </c>
       <c r="D13" t="n">
-        <v>10.62348334314841</v>
+        <v>8.537895413113901</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.08689776349306</v>
+        <v>80.61437228339148</v>
       </c>
       <c r="D14" t="n">
-        <v>9.266052500036031</v>
+        <v>9.142315346248431</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.79048856907674</v>
+        <v>79.85447182902767</v>
       </c>
       <c r="D15" t="n">
-        <v>10.17040532297339</v>
+        <v>8.545046306672457</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.7216243299562</v>
+        <v>78.24895034604309</v>
       </c>
       <c r="D16" t="n">
-        <v>9.204596139937809</v>
+        <v>8.763177912410139</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.28438460190227</v>
+        <v>77.75939674484343</v>
       </c>
       <c r="D17" t="n">
-        <v>8.856429710509248</v>
+        <v>9.05518616540229</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.91678987267349</v>
+        <v>75.30870671215519</v>
       </c>
       <c r="D18" t="n">
-        <v>9.691781895480895</v>
+        <v>8.876511027822799</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.93014725182088</v>
+        <v>74.52735962566815</v>
       </c>
       <c r="D19" t="n">
-        <v>9.377200958725874</v>
+        <v>7.958171965521789</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.45954376138008</v>
+        <v>75.15457408762924</v>
       </c>
       <c r="D20" t="n">
-        <v>9.658066437310271</v>
+        <v>10.17972683628478</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.11750931385694</v>
+        <v>73.29104698325921</v>
       </c>
       <c r="D21" t="n">
-        <v>10.10630173942028</v>
+        <v>9.836721833085832</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.98205677075448</v>
+        <v>71.37557089897487</v>
       </c>
       <c r="D22" t="n">
-        <v>10.04476420376584</v>
+        <v>9.074370446972729</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.63263007211286</v>
+        <v>69.90872649272956</v>
       </c>
       <c r="D23" t="n">
-        <v>9.027045232599523</v>
+        <v>10.00883254414593</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.07331661269603</v>
+        <v>68.80946797032099</v>
       </c>
       <c r="D24" t="n">
-        <v>9.721255355143237</v>
+        <v>9.32780930662922</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.77194437871586</v>
+        <v>69.22416717825952</v>
       </c>
       <c r="D25" t="n">
-        <v>9.826256978439721</v>
+        <v>10.04658948065285</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.77490012257593</v>
+        <v>65.81352837981781</v>
       </c>
       <c r="D26" t="n">
-        <v>9.499256930960238</v>
+        <v>9.231635663341711</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.48366374880919</v>
+        <v>65.34270055568571</v>
       </c>
       <c r="D27" t="n">
-        <v>8.840420310495972</v>
+        <v>10.1634781573254</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.03798702086982</v>
+        <v>65.13385640229481</v>
       </c>
       <c r="D28" t="n">
-        <v>9.768384442727545</v>
+        <v>9.187016687348892</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.64305490198775</v>
+        <v>64.05305603196452</v>
       </c>
       <c r="D29" t="n">
-        <v>8.955945891708815</v>
+        <v>9.973589853640496</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.1261862199157</v>
+        <v>63.0065156215308</v>
       </c>
       <c r="D30" t="n">
-        <v>9.659856563435969</v>
+        <v>8.543458951469425</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.76966091424546</v>
+        <v>60.99412295879244</v>
       </c>
       <c r="D31" t="n">
-        <v>9.640363193361166</v>
+        <v>8.600002433755202</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.19859933380283</v>
+        <v>60.36500926433489</v>
       </c>
       <c r="D32" t="n">
-        <v>10.41694918879509</v>
+        <v>8.734926532234415</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.93748112729561</v>
+        <v>59.17371128033167</v>
       </c>
       <c r="D33" t="n">
-        <v>8.782777017879898</v>
+        <v>8.181842797542094</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.9209783118709</v>
+        <v>59.79268320256229</v>
       </c>
       <c r="D34" t="n">
-        <v>9.345628401274153</v>
+        <v>8.191707907145142</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.44586434869003</v>
+        <v>58.23177397827735</v>
       </c>
       <c r="D35" t="n">
-        <v>9.755787555029793</v>
+        <v>10.07461636021833</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.17814748904902</v>
+        <v>57.50172656205634</v>
       </c>
       <c r="D36" t="n">
-        <v>9.589763997309054</v>
+        <v>8.109830554860769</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.1437595144939</v>
+        <v>54.60161027657066</v>
       </c>
       <c r="D37" t="n">
-        <v>9.518173574300452</v>
+        <v>9.629474819791707</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.08494460900462</v>
+        <v>55.32475229562603</v>
       </c>
       <c r="D38" t="n">
-        <v>10.22884073770515</v>
+        <v>8.759998534302834</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.35726781482717</v>
+        <v>52.80308269055428</v>
       </c>
       <c r="D39" t="n">
-        <v>10.32468379272363</v>
+        <v>9.176233887042258</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.3174282288028</v>
+        <v>53.74633772284097</v>
       </c>
       <c r="D40" t="n">
-        <v>8.846078634675568</v>
+        <v>9.266967838960978</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.00175073876984</v>
+        <v>49.76834588094773</v>
       </c>
       <c r="D41" t="n">
-        <v>8.292767549071165</v>
+        <v>7.664280757565309</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.15318709454608</v>
+        <v>49.09014773456862</v>
       </c>
       <c r="D42" t="n">
-        <v>10.31440245479699</v>
+        <v>8.108024316165913</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.90593125687742</v>
+        <v>50.64849167997045</v>
       </c>
       <c r="D43" t="n">
-        <v>8.129753744552824</v>
+        <v>8.365920606833184</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.7952393015598</v>
+        <v>49.53726239543406</v>
       </c>
       <c r="D44" t="n">
-        <v>10.10354284617575</v>
+        <v>9.207164992792427</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.66147520888476</v>
+        <v>46.99858775084789</v>
       </c>
       <c r="D45" t="n">
-        <v>9.77809061102989</v>
+        <v>9.631512266901241</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.98302862418112</v>
+        <v>45.8002960610165</v>
       </c>
       <c r="D46" t="n">
-        <v>9.574889405591401</v>
+        <v>9.56324962564258</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.59995475940669</v>
+        <v>45.49662258949144</v>
       </c>
       <c r="D47" t="n">
-        <v>8.993878385318713</v>
+        <v>8.651629889337832</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.47495512547913</v>
+        <v>44.52354920411167</v>
       </c>
       <c r="D48" t="n">
-        <v>8.061826985047521</v>
+        <v>10.28945773187413</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.10604040109673</v>
+        <v>42.95005649618341</v>
       </c>
       <c r="D49" t="n">
-        <v>8.703279688160711</v>
+        <v>9.606747185431438</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.26375443909959</v>
+        <v>41.15755203119953</v>
       </c>
       <c r="D50" t="n">
-        <v>10.6354609105246</v>
+        <v>9.311066056376854</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.17629412227135</v>
+        <v>40.86260358629581</v>
       </c>
       <c r="D51" t="n">
-        <v>9.565693203044569</v>
+        <v>10.02472110826154</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.179170700221</v>
+        <v>40.48446050410601</v>
       </c>
       <c r="D52" t="n">
-        <v>10.35318356831063</v>
+        <v>9.229204212894158</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.5987837626509</v>
+        <v>39.68084314272025</v>
       </c>
       <c r="D53" t="n">
-        <v>9.476872163287281</v>
+        <v>9.112930401012845</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.51417968011705</v>
+        <v>37.54354254850234</v>
       </c>
       <c r="D54" t="n">
-        <v>8.947812419518552</v>
+        <v>9.454866494844813</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.40465355440839</v>
+        <v>37.1733896667506</v>
       </c>
       <c r="D55" t="n">
-        <v>9.720314212857089</v>
+        <v>9.136114840503492</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.04812578866765</v>
+        <v>36.30528754748602</v>
       </c>
       <c r="D56" t="n">
-        <v>8.872001372618577</v>
+        <v>9.30519189823254</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.34640952582895</v>
+        <v>34.4537324573633</v>
       </c>
       <c r="D57" t="n">
-        <v>9.325268129078715</v>
+        <v>8.575537481135411</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.46446816617353</v>
+        <v>33.30228439018543</v>
       </c>
       <c r="D58" t="n">
-        <v>7.713598239779301</v>
+        <v>9.28260896944008</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.1039517579912</v>
+        <v>32.26362731304965</v>
       </c>
       <c r="D59" t="n">
-        <v>9.748904389446052</v>
+        <v>9.047873519547345</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.78838469937646</v>
+        <v>33.11122421635136</v>
       </c>
       <c r="D60" t="n">
-        <v>8.994795475052946</v>
+        <v>9.025954164788237</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.06169024385638</v>
+        <v>29.49179156810069</v>
       </c>
       <c r="D61" t="n">
-        <v>9.629977230307766</v>
+        <v>8.691894234431865</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.13488105276155</v>
+        <v>29.41642091818473</v>
       </c>
       <c r="D62" t="n">
-        <v>10.40851825631214</v>
+        <v>9.934796741978726</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.235326972907</v>
+        <v>28.56819095731619</v>
       </c>
       <c r="D63" t="n">
-        <v>9.446890724112995</v>
+        <v>9.190246260499407</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.07854938824442</v>
+        <v>28.75685778008295</v>
       </c>
       <c r="D64" t="n">
-        <v>9.801267401130316</v>
+        <v>9.943398916422872</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.04897270845474</v>
+        <v>27.30648747378531</v>
       </c>
       <c r="D65" t="n">
-        <v>8.890076242639992</v>
+        <v>8.320472384456611</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.51945868837241</v>
+        <v>25.0987646850744</v>
       </c>
       <c r="D66" t="n">
-        <v>8.804162335382543</v>
+        <v>7.826537400971388</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.53252824415183</v>
+        <v>25.33574580674017</v>
       </c>
       <c r="D67" t="n">
-        <v>8.364670365055323</v>
+        <v>9.104195193198004</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.11778704611139</v>
+        <v>24.45763812744626</v>
       </c>
       <c r="D68" t="n">
-        <v>9.252755227803862</v>
+        <v>9.953265849869764</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.40869218959727</v>
+        <v>23.1769257267742</v>
       </c>
       <c r="D69" t="n">
-        <v>7.987930566371329</v>
+        <v>9.101984605398815</v>
       </c>
     </row>
   </sheetData>
